--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-01_beg.xlsx
@@ -760,11 +760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   "Silent we shall be, should conflict be avoidable--
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]   --but fight tooth and nail, should it be necessary!"
+    <t xml:space="preserve">[name="Amiya"]   'Silent we shall be, should conflict be avoidable--
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]   --but fight tooth and nail, should it be necessary!'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-01_beg.xlsx
@@ -524,7 +524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  How could this be…
+    <t xml:space="preserve">[name="Dobermann"]  How could this be...
 </t>
   </si>
   <si>
